--- a/论文要求/相关附件（2017.5）/附件2：有关论文查重/无XX班-论文数据清单（以班级为单位汇总）.xlsx
+++ b/论文要求/相关附件（2017.5）/附件2：有关论文查重/无XX班-论文数据清单（以班级为单位汇总）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19200" windowHeight="11610"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,13 +55,37 @@
   </si>
   <si>
     <t>无XX班 综合论文训练 论文数据清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013011248</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨一雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路与系统研究所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高速、高精度数控振荡器(NCO)设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨华中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -169,6 +193,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -216,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,9 +275,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,6 +310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,11 +486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -521,13 +550,27 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
+        <v>18800197537</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
@@ -856,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -870,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
